--- a/data/data-2.xlsx
+++ b/data/data-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\looker\bump-chart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\bump-chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB44B0D-2896-42FC-BFC9-2EAD56D27F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0207AF-7274-4A43-B98B-49881D3C49CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{B3572ED2-1760-4B7E-8459-B274F865C245}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3572ED2-1760-4B7E-8459-B274F865C245}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -577,17 +577,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EE4E78-3B55-4F9C-87BB-2DF38E066D60}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -609,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -631,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -651,108 +651,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0825CCC-8157-4C15-A6CE-8CDFD162AFD2}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -770,14 +770,14 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -799,7 +799,7 @@
         <v>16407</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -810,7 +810,7 @@
         <v>15608</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -821,7 +821,7 @@
         <v>14087</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -832,7 +832,7 @@
         <v>12719</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -843,7 +843,7 @@
         <v>12446</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -854,7 +854,7 @@
         <v>11519</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -865,7 +865,7 @@
         <v>10432</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -876,7 +876,7 @@
         <v>10317</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -887,7 +887,7 @@
         <v>9542</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -911,14 +911,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="75.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -929,7 +929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -940,7 +940,7 @@
         <v>264152</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -951,7 +951,7 @@
         <v>231699</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -962,7 +962,7 @@
         <v>231658</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -973,7 +973,7 @@
         <v>216847</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -984,7 +984,7 @@
         <v>141110</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -995,7 +995,7 @@
         <v>126772</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>118780</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>116980</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>116550</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>

--- a/data/data-2.xlsx
+++ b/data/data-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\bump-chart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\looker\bump-chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0207AF-7274-4A43-B98B-49881D3C49CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB44B0D-2896-42FC-BFC9-2EAD56D27F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3572ED2-1760-4B7E-8459-B274F865C245}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{B3572ED2-1760-4B7E-8459-B274F865C245}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -577,17 +577,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EE4E78-3B55-4F9C-87BB-2DF38E066D60}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -609,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -631,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -651,108 +651,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0825CCC-8157-4C15-A6CE-8CDFD162AFD2}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -770,14 +770,14 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="53.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -799,7 +799,7 @@
         <v>16407</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -810,7 +810,7 @@
         <v>15608</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -821,7 +821,7 @@
         <v>14087</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -832,7 +832,7 @@
         <v>12719</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -843,7 +843,7 @@
         <v>12446</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -854,7 +854,7 @@
         <v>11519</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -865,7 +865,7 @@
         <v>10432</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -876,7 +876,7 @@
         <v>10317</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -887,7 +887,7 @@
         <v>9542</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -911,14 +911,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="75.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="75.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -929,7 +929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -940,7 +940,7 @@
         <v>264152</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -951,7 +951,7 @@
         <v>231699</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -962,7 +962,7 @@
         <v>231658</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -973,7 +973,7 @@
         <v>216847</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -984,7 +984,7 @@
         <v>141110</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -995,7 +995,7 @@
         <v>126772</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>118780</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>116980</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>116550</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
